--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.614</v>
+        <v>-12.06030000000001</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.705400000000003</v>
+        <v>6.038500000000002</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.267199999999998</v>
+        <v>-7.125899999999998</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.3411</v>
+        <v>16.4328</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.285799999999999</v>
+        <v>-7.316899999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.875800000000003</v>
+        <v>5.619800000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.246</v>
+        <v>16.3291</v>
       </c>
     </row>
     <row r="20">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.467200000000002</v>
+        <v>9.511900000000006</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.979200000000006</v>
+        <v>9.139400000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,10 +845,10 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.162000000000005</v>
+        <v>-7.360000000000005</v>
       </c>
       <c r="E24" t="n">
-        <v>16.66870000000002</v>
+        <v>16.66490000000001</v>
       </c>
     </row>
     <row r="25">
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.394400000000003</v>
+        <v>5.358900000000003</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.85</v>
+        <v>-13.1084</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.641299999999996</v>
+        <v>-9.084299999999992</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.269100000000005</v>
+        <v>5.547300000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.80710000000001</v>
+        <v>-12.9893</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.941500000000003</v>
+        <v>5.027500000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2583</v>
+        <v>15.33929999999999</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.6111</v>
+        <v>-13.19619999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.0015</v>
+        <v>16.02320000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.91040000000002</v>
+        <v>17.06100000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.84610000000001</v>
+        <v>-12.69260000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.59010000000001</v>
+        <v>16.55940000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.69219999999999</v>
+        <v>-11.50379999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.075100000000001</v>
+        <v>-7.990000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6868</v>
+        <v>-11.56229999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1406</v>
+        <v>-11.1372</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,13 +1332,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.409599999999997</v>
+        <v>5.347299999999998</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.0119</v>
+        <v>-6.047700000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.9433</v>
+        <v>-13.7109</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.51260000000001</v>
+        <v>16.3392</v>
       </c>
     </row>
     <row r="56">
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.5255</v>
+        <v>-12.07769999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.017099999999998</v>
+        <v>5.014299999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.74169999999999</v>
+        <v>-13.736</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.841600000000001</v>
+        <v>-8.841099999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.32550000000002</v>
+        <v>16.47640000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.934199999999997</v>
+        <v>4.870799999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.891700000000002</v>
+        <v>-7.803399999999999</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.529900000000001</v>
+        <v>-7.692700000000002</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.86460000000002</v>
+        <v>17.10690000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.278199999999994</v>
+        <v>5.415899999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.391200000000003</v>
+        <v>-8.1495</v>
       </c>
       <c r="E70" t="n">
-        <v>16.62989999999999</v>
+        <v>16.65969999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.2071</v>
+        <v>-12.437</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.62460000000001</v>
+        <v>16.57920000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.555300000000008</v>
+        <v>9.465200000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.489799999999997</v>
+        <v>5.406799999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.90000000000001</v>
+        <v>16.6621</v>
       </c>
     </row>
     <row r="84">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.678200000000002</v>
+        <v>-8.688899999999997</v>
       </c>
       <c r="E86" t="n">
-        <v>16.10020000000001</v>
+        <v>16.07170000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.7662</v>
+        <v>-10.8032</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.5892</v>
+        <v>-12.9025</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.036999999999997</v>
+        <v>5.062299999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.3241</v>
+        <v>-11.3428</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.073400000000003</v>
+        <v>5.941999999999998</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.84589999999999</v>
+        <v>15.8358</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.98900000000002</v>
+        <v>16.85340000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.947899999999997</v>
+        <v>-9.185599999999992</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.861699999999995</v>
+        <v>-8.861699999999997</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.036899999999996</v>
+        <v>-7.982799999999997</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
